--- a/3-Punkt-Abschätzung-MovAV.xlsx
+++ b/3-Punkt-Abschätzung-MovAV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pin9fe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graphical_Programming_CurveDriving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7586F175-5552-468B-82D5-7937349A3113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE83E9-6F25-4A6F-A2CB-937C46033976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26903D29-845D-48DD-A076-DA3E41F489A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Aktivität</t>
   </si>
@@ -56,41 +56,98 @@
     <t>var [min^2]</t>
   </si>
   <si>
-    <t>UT Calc</t>
-  </si>
-  <si>
-    <t>UT Reset</t>
-  </si>
-  <si>
-    <t>UT MovAv</t>
-  </si>
-  <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>MovAv</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>Korrekturen</t>
-  </si>
-  <si>
     <t>Aktuell</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R1ST</t>
+  </si>
+  <si>
+    <t>R3ST</t>
+  </si>
+  <si>
+    <t>R4ST</t>
+  </si>
+  <si>
+    <t>R5ST</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>R3UT</t>
+  </si>
+  <si>
+    <t>R4UT</t>
+  </si>
+  <si>
+    <t>D6ST</t>
+  </si>
+  <si>
+    <t>D9ST</t>
+  </si>
+  <si>
+    <t>D4UT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABEC538-5C1C-423A-9221-8EA9BB5168CB}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,208 +528,586 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2">
         <f>(B2+4*C2+D2)/6</f>
-        <v>16.666666666666668</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F2" s="2">
         <f>(D2-B2)^2/36</f>
-        <v>11.111111111111111</v>
+        <v>177.77777777777777</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E9" si="0">(B3+4*C3+D3)/6</f>
-        <v>16.666666666666668</v>
+        <f t="shared" ref="E3:E10" si="0">(B3+4*C3+D3)/6</f>
+        <v>146.66666666666666</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F9" si="1">(D3-B3)^2/36</f>
-        <v>11.111111111111111</v>
+        <f t="shared" ref="F3:F10" si="1">(D3-B3)^2/36</f>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>10.833333333333334</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>10.833333333333334</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>69.444444444444443</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>10.833333333333334</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>34.027777777777779</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>10.833333333333334</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:E26" si="2">(B11+4*C11+D11)/6</f>
+        <v>32.5</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F26" si="3">(D11-B11)^2/36</f>
+        <v>17.361111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>177.77777777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>17.361111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>160</v>
+      </c>
+      <c r="D21">
+        <v>180</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>156.66666666666666</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="3"/>
+        <v>69.444444444444443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
         <v>0.5</v>
       </c>
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>115.83333333333333</v>
-      </c>
-      <c r="F10" s="2">
-        <f>SUM(F2:F9)</f>
-        <v>92.361111111111114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
+      <c r="E27" s="2">
+        <f>SUM(E2:E26)</f>
+        <v>1394.1666666666663</v>
+      </c>
+      <c r="F27" s="2">
+        <f>SUM(F2:F26)</f>
+        <v>1120.1388888888887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
         <v>0.95</v>
       </c>
-      <c r="E11" s="2">
-        <f>E10+2*(F10^0.5)</f>
-        <v>135.05427099111799</v>
-      </c>
+      <c r="E28" s="2">
+        <f>E27+2*(F27^0.5)</f>
+        <v>1461.1036187600769</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3-Punkt-Abschätzung-MovAV.xlsx
+++ b/3-Punkt-Abschätzung-MovAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graphical_Programming_CurveDriving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE83E9-6F25-4A6F-A2CB-937C46033976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3956964-0B64-4F14-836C-FC81E121851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26903D29-845D-48DD-A076-DA3E41F489A3}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABEC538-5C1C-423A-9221-8EA9BB5168CB}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,9 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,6 +554,9 @@
         <f>(D2-B2)^2/36</f>
         <v>177.77777777777777</v>
       </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -574,6 +579,9 @@
         <f t="shared" ref="F3:F10" si="1">(D3-B3)^2/36</f>
         <v>44.444444444444443</v>
       </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -596,6 +604,9 @@
         <f t="shared" si="1"/>
         <v>44.444444444444443</v>
       </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -618,6 +629,9 @@
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -640,6 +654,9 @@
         <f t="shared" si="1"/>
         <v>69.444444444444443</v>
       </c>
+      <c r="G6">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -662,6 +679,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -684,6 +704,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -706,6 +729,9 @@
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -728,6 +754,9 @@
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -750,6 +779,9 @@
         <f t="shared" ref="F11:F26" si="3">(D11-B11)^2/36</f>
         <v>17.361111111111111</v>
       </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -772,6 +804,9 @@
         <f t="shared" si="3"/>
         <v>11.111111111111111</v>
       </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -794,6 +829,9 @@
         <f t="shared" si="3"/>
         <v>11.111111111111111</v>
       </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -816,6 +854,9 @@
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -838,6 +879,9 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -860,8 +904,11 @@
         <f t="shared" si="3"/>
         <v>177.77777777777777</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -882,8 +929,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -904,8 +954,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -926,8 +979,11 @@
         <f t="shared" si="3"/>
         <v>17.361111111111111</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -948,8 +1004,11 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -970,8 +1029,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -992,8 +1054,11 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1014,8 +1079,11 @@
         <f t="shared" si="3"/>
         <v>69.444444444444443</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1036,8 +1104,11 @@
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1058,8 +1129,11 @@
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1080,8 +1154,11 @@
         <f t="shared" si="3"/>
         <v>2.7777777777777777</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>0.5</v>
       </c>
@@ -1093,8 +1170,12 @@
         <f>SUM(F2:F26)</f>
         <v>1120.1388888888887</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f>SUM(G2:G26)</f>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <v>0.95</v>
       </c>
@@ -1109,5 +1190,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>